--- a/quan.java/definition/config/CardConfig.xlsx
+++ b/quan.java/definition/config/CardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\definition\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A77D785-C776-428D-9003-0DD94C69F3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E1CD46-D9F2-412B-B609-E65F1BACAA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>卡片3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;index=normal</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1113,7 +1117,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1191,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>

--- a/quan.java/definition/config/CardConfig.xlsx
+++ b/quan.java/definition/config/CardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\definition\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E1CD46-D9F2-412B-B609-E65F1BACAA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D08E320-FA9E-4ED0-9447-105B6BF97BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,11 +1117,12 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
